--- a/Relacionados.xlsx
+++ b/Relacionados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Dropbox\UFABC\PGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F58DB-DCE3-43BA-9D71-5F371CBE9764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB37C5-EB53-4659-A8B8-EAA250AB2BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="250">
   <si>
     <t>Rel1</t>
   </si>
@@ -759,13 +759,25 @@
   </si>
   <si>
     <t>Medicina</t>
+  </si>
+  <si>
+    <t>Amazônia: fatos e curiosidades</t>
+  </si>
+  <si>
+    <t>O que está acontecendo com os insetos?</t>
+  </si>
+  <si>
+    <t>Perigos na mistura de produtos de limpeza!</t>
+  </si>
+  <si>
+    <t>Qual a diferença entre rinite e sinusite?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -799,6 +811,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -820,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -843,12 +861,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -868,6 +927,10 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,10 +1150,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153:E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3678,8 +3741,76 @@
       <c r="D152" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="13" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3689,6 +3820,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3696,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9400CDC-A04E-46D1-9272-0481E0533182}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
